--- a/biology/Zoologie/Aedes_furcifer/Aedes_furcifer.xlsx
+++ b/biology/Zoologie/Aedes_furcifer/Aedes_furcifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aedes furcifer est une espèce d'insectes diptères, un moustique retrouvé en Afrique australe et équatoriale. C'est une espèce vectrice de nombreuses arboviroses en Afrique tropicale, dont la fièvre jaune, la dengue et le chikungunya[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aedes furcifer est une espèce d'insectes diptères, un moustique retrouvé en Afrique australe et équatoriale. C'est une espèce vectrice de nombreuses arboviroses en Afrique tropicale, dont la fièvre jaune, la dengue et le chikungunya.
 </t>
         </is>
       </c>
